--- a/biology/Histoire de la zoologie et de la botanique/Musée_de_zoologie_de_l'université_du_Wisconsin/Musée_de_zoologie_de_l'université_du_Wisconsin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_de_zoologie_de_l'université_du_Wisconsin/Musée_de_zoologie_de_l'université_du_Wisconsin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_zoologie_de_l%27universit%C3%A9_du_Wisconsin</t>
+          <t>Musée_de_zoologie_de_l'université_du_Wisconsin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de zoologie de l'université du Wisconsin a été créé en 1848, avant même la construction du premier bâtiment de l’Université du Wisconsin, à Madison, par la direction de celle-ci. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_zoologie_de_l%27universit%C3%A9_du_Wisconsin</t>
+          <t>Musée_de_zoologie_de_l'université_du_Wisconsin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections commencent à être rassemblées par Horace Addison Tenney (1820-1906) et Increase Lapham (1811-1875). En 1865, le nombre de spécimens dépasse 12 000. Edward Asahel Birge (1851-1950) est embauché en 1875 et va faire sa carrière à l’université comme professeur, il reçoit en outre la charge du cabinet d’histoire naturelle. En 1894, un incendie détruit le bâtiment qui abrite le muséum. C’est Birge qui reconstitue les collections et reçoit l’assistance de Thure Ludwig Theodor Kumlien (1819-1888) pour la constitution d’un ensemble de peau d’oiseaux de l'État.
 George Wagner est embauché en 1913 pour enseigner diverses matières d’histoire naturelle et introduit l’enseignement de l’écologie, la génétique et de l’ornithologie. Birge et Wagner embauchent plusieurs récolteurs pour enrichir les collections de reptiles et d’amphibiens dont Arthur Irving Ortenburger (1898-1961). Le muséum conserve aussi les données rassemblés par Wagner et ses étudiants qui réalisent l’une des premières opérations de baguage d’oiseaux des États-Unis (1925-1943). Il possède aussi une collection de mollusques récoltés par Frank Collins Baker (1867-1942). L’institution reçoit aussi la collection personnelle de peaux, de nids, d’œufs et de squelettes d’oiseaux de Ludwig Kumlien (1853-1902), le fils de Thure Kumlien.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_zoologie_de_l%27universit%C3%A9_du_Wisconsin</t>
+          <t>Musée_de_zoologie_de_l'université_du_Wisconsin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Site officiel
  Portail des musées   Portail de la zoologie   Portail de l’histoire de la zoologie et de la botanique   Portail du Wisconsin   Portail des universités américaines                 </t>
